--- a/仕様書/Masterの仕様書/プレイヤーの仕様書.xlsx
+++ b/仕様書/Masterの仕様書/プレイヤーの仕様書.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>BBAの新仕様</t>
     <rPh sb="4" eb="5">
@@ -656,13 +656,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スコアアップの仕様</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>乗せ方のパターンでレジに通したときのスコアが変わる</t>
     <rPh sb="0" eb="1">
       <t>ノ</t>
@@ -809,26 +802,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>R2を二回入力でものを落とす</t>
-    <rPh sb="3" eb="5">
-      <t>ニカイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダブルカート状態のとき</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>二つの動作を足してやりたいこと</t>
     <rPh sb="0" eb="1">
       <t>フタ</t>
@@ -869,6 +842,81 @@
     <t>ただし、崩れやすい</t>
     <rPh sb="4" eb="5">
       <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焼けてるSEを入れる</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食べてるSEを入れる</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートが壊れた時SEとエフェクトを入れる</t>
+    <rPh sb="4" eb="5">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗せ方の仕様</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1を二回入力でものを落とす</t>
+    <rPh sb="3" eb="5">
+      <t>ニカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダブルカート状態のときR１は右のカート、L2は左のカートを落とせるようにする</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -12819,13 +12867,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y65" sqref="Y65"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12833,42 +12881,52 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:16">
       <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:16">
       <c r="E8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:16">
       <c r="E9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:16">
       <c r="E10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:16">
       <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:16">
       <c r="E13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="4:13">
+    <row r="14" spans="1:16">
+      <c r="P14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15">
       <c r="D19" t="s">
         <v>8</v>
       </c>
@@ -12882,7 +12940,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="4:13">
+    <row r="26" spans="4:15">
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15">
       <c r="F30" t="s">
         <v>12</v>
       </c>
@@ -12890,7 +12953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="4:13">
+    <row r="31" spans="4:15">
       <c r="F31" t="s">
         <v>13</v>
       </c>
@@ -12928,7 +12991,7 @@
         <v>29</v>
       </c>
       <c r="J60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -12953,16 +13016,16 @@
     </row>
     <row r="65" spans="1:25">
       <c r="J65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N65" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="T65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -13070,72 +13133,72 @@
     </row>
     <row r="120" spans="1:20">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:20">
       <c r="A121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:20">
       <c r="A122" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="123" spans="1:20">
       <c r="A123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:20">
       <c r="A124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="128" spans="1:20">
       <c r="T128" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:20">
       <c r="T129" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:20">
       <c r="I135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="136" spans="1:20">
       <c r="I136" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:20">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:20">
       <c r="A140" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:20">
       <c r="A141" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="1:20">
       <c r="A142" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="143" spans="1:20">
       <c r="A143" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
